--- a/similarities/split_global/harmonic_similarity_timestamps_245.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_245.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['E', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:16.557573')]</t>
+          <t>('0:00:53.714217', '0:01:08.818798')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:01:05.706000', '0:01:08.669000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=53.714217</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=65.706</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:07.560000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+          <t>('0:00:11.300000', '0:00:43.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:43.120000', '0:00:52.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=11.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=43.12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:29.020000', '0:00:40.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:10.260000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000')]</t>
+          <t>('0:00:18.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:45.580000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:59.800000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.760000', '0:00:08.700000')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
+          <t>('0:00:11.260000', '0:00:14.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=3.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-95#t=39.979523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'G:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['Ab', 'Db/5', 'Ab'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'E', 'F#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:11.400000', '0:01:14.700000'), ('0:00:21.580000', '0:00:29.340000'), ('0:01:13.300000', '0:01:20.180000')]</t>
+          <t>('0:00:26.915000', '0:00:30.761000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:03.858000', '0:01:20.628000'), ('0:00:00.243000', '0:00:09.120000'), ('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:00:02.795551', '0:00:15.447641')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=71.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=26.915</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=2.795551</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:dim7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['F#:dim7', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:18.700000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:01:16.520000', '0:01:20.620000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=76.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:46.932280', '0:00:54.037586')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
